--- a/BuildTool/Config/Item(1000-2000).xlsx
+++ b/BuildTool/Config/Item(1000-2000).xlsx
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附加定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,122 +498,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>10001</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10">
         <v>10002</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10003</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/BuildTool/Config/Item(1000-2000).xlsx
+++ b/BuildTool/Config/Item(1000-2000).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,18 @@
   </si>
   <si>
     <t>内容描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,7 +548,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -560,13 +568,13 @@
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -616,6 +624,17 @@
       </c>
       <c r="E11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/Item(1000-2000).xlsx
+++ b/BuildTool/Config/Item(1000-2000).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,7 +505,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,13 +564,10 @@
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -631,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
